--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/NotificationUser.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/NotificationUser.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/123/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B787D5F5-D213-49E7-9535-11EF83078BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{B787D5F5-D213-49E7-9535-11EF83078BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7203DE9A-23A8-4B8F-B954-FA200C62C274}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="19956" windowHeight="9072" xr2:uid="{D65BFEAE-C611-492F-9CF8-755F2B6BC439}"/>
+    <workbookView xWindow="324" yWindow="492" windowWidth="19956" windowHeight="9072" xr2:uid="{D65BFEAE-C611-492F-9CF8-755F2B6BC439}"/>
   </bookViews>
   <sheets>
     <sheet name="NotificationUser" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Ngày kết thúc</t>
   </si>
@@ -87,9 +87,6 @@
     <t>primary_key</t>
   </si>
   <si>
-    <t>NU00001</t>
-  </si>
-  <si>
     <t>notification_user_id</t>
   </si>
   <si>
@@ -112,6 +109,37 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>NU00000</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Tồn tại</t>
+  </si>
+  <si>
+    <t>notification_user_seen</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>UI00000</t>
+  </si>
+  <si>
+    <t>NI00000</t>
+  </si>
+  <si>
+    <t>NUN00000</t>
+  </si>
+  <si>
+    <t>TRUE : Đã xem
+FALSE : Chưa xem</t>
   </si>
 </sst>
 </file>
@@ -144,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -182,11 +210,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -199,6 +242,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,8 +566,8 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -531,25 +577,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -557,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -569,7 +615,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
@@ -589,10 +635,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
@@ -615,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
@@ -668,22 +714,50 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>

--- a/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/NotificationUser.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/Thiết Kế Phần Mềm/Thiết kế lưu trữ/NotificationUser.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f7d33519bf48a6/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\To-Do-App\ToDoApp-Doc\Document\Diagram\Thiết Kế Phần Mềm\Thiết kế lưu trữ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{B787D5F5-D213-49E7-9535-11EF83078BFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7203DE9A-23A8-4B8F-B954-FA200C62C274}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CC381-FABF-4178-9373-1B4530FF4E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="492" windowWidth="19956" windowHeight="9072" xr2:uid="{D65BFEAE-C611-492F-9CF8-755F2B6BC439}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D65BFEAE-C611-492F-9CF8-755F2B6BC439}"/>
   </bookViews>
   <sheets>
     <sheet name="NotificationUser" sheetId="1" r:id="rId1"/>
@@ -566,12 +566,16 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
     <col min="27" max="27" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
